--- a/admin/minden/kreis-wiedenbrueck.xlsx
+++ b/admin/minden/kreis-wiedenbrueck.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E0CD7-6B86-428E-AC49-DCDC712EA175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B092D2-CA43-485C-9222-2DBAF39766E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="23649" windowHeight="16303" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluren" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
     <t>Kreis</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Vermessungsraster</t>
+  </si>
+  <si>
+    <t>NP Hinweise</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Net Rotation</t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -337,6 +346,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DC3E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DC3E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DC3E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -345,7 +374,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -380,6 +409,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -591,9 +622,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Gemeinden" displayName="Gemeinden" ref="A1:J4" totalsRowShown="0">
-  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Gemeinden" displayName="Gemeinden" ref="A1:P4" totalsRowShown="0">
+  <autoFilter ref="A1:P4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Kreis">
       <calculatedColumnFormula>INDEX(Bürgermeistereien!$A:$A,MATCH(B2,Bürgermeistereien!$B:$B,0))</calculatedColumnFormula>
     </tableColumn>
@@ -606,6 +637,12 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Archiv Mutterrollen"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Archiv Güterverzeichnis"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Export Reinertrag"/>
+    <tableColumn id="11" xr3:uid="{E8F526A1-0251-4390-B21A-12B409035973}" name="NP X"/>
+    <tableColumn id="12" xr3:uid="{DF0668EA-771A-4B00-9ABC-D809920353F2}" name="NP Y"/>
+    <tableColumn id="15" xr3:uid="{E8AF1DF8-CEE1-4018-9F40-BD8C5D9E8279}" name="Net Rotation"/>
+    <tableColumn id="13" xr3:uid="{F37AD5D1-95DB-413F-B5A9-C9930DE12D3D}" name="NP Hinweise"/>
+    <tableColumn id="16" xr3:uid="{C7378C78-DCAB-4216-9D6D-7545A2B4A0E7}" name="Punkte pro Gemeinde"/>
+    <tableColumn id="14" xr3:uid="{17342D53-6801-4754-B8ED-0A4F99C3B11D}" name="Vermessungsraster"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1949,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1968,7 +2005,7 @@
     <col min="10" max="10" width="17.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1999,8 +2036,26 @@
       <c r="J1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="str">
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(B2,Bürgermeistereien!$B:$B,0))</f>
         <v>wiedenbrueck</v>
@@ -2028,8 +2083,17 @@
         <v>31</v>
       </c>
       <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="K2">
+        <v>448000.32</v>
+      </c>
+      <c r="L2">
+        <v>5748261</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="str">
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(B3,Bürgermeistereien!$B:$B,0))</f>
         <v>wiedenbrueck</v>
@@ -2056,8 +2120,18 @@
         <v>35</v>
       </c>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="18">
+        <v>356512.33</v>
+      </c>
+      <c r="L3" s="18">
+        <v>5645224.4299999997</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1.58</v>
+      </c>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="str">
         <f>INDEX(Bürgermeistereien!$A:$A,MATCH(B4,Bürgermeistereien!$B:$B,0))</f>
         <v>wiedenbrueck</v>
@@ -2099,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
